--- a/まとめたデータ/Book3.xlsx
+++ b/まとめたデータ/Book3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NeuMi\OneDrive\ドキュメント\work2019\excel\sotuken\まとめたデータ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{878151EB-0B6C-42B6-8241-0B5A728747D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E1629F-BBAF-4733-91C6-698DB9D3F35A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{1294B453-1D66-4EB5-B590-666AB9720288}"/>
   </bookViews>
@@ -937,7 +937,9 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1052,6 +1054,8 @@
         <c:axId val="912029216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1155,6 +1159,7 @@
         <c:crossAx val="912029544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="912029544"/>
@@ -1923,16 +1928,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>80961</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>176211</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>576261</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>147636</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>504824</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>314324</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2259,8 +2264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E4B87B2-CE45-41FC-86F5-47B4B2C6762B}">
   <dimension ref="A1:J98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C46" workbookViewId="0">
-      <selection activeCell="O72" sqref="O72"/>
+    <sheetView tabSelected="1" topLeftCell="C58" workbookViewId="0">
+      <selection activeCell="N73" sqref="N73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
